--- a/OA4603/Exams/MazzaExam2.xlsx
+++ b/OA4603/Exams/MazzaExam2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -110,6 +110,48 @@
   </si>
   <si>
     <t>a3:</t>
+  </si>
+  <si>
+    <t>ModA</t>
+  </si>
+  <si>
+    <t>ModB</t>
+  </si>
+  <si>
+    <t>ModC</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>differnece</t>
+  </si>
+  <si>
+    <t>lsd</t>
+  </si>
+  <si>
+    <t>l conf</t>
+  </si>
+  <si>
+    <t>u conf</t>
+  </si>
+  <si>
+    <t>(n)/s</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>a-c</t>
+  </si>
+  <si>
+    <t>n/s</t>
+  </si>
+  <si>
+    <t>sign</t>
   </si>
 </sst>
 </file>
@@ -202,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -218,6 +260,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,13 +744,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="5">
-        <f>((A6^2+B6^2+C6^2)/4)-D7</f>
-        <v>-61.113636363636374</v>
-      </c>
-      <c r="E9" s="5">
-        <f>((D2^2+D3^2+D4^2+D5^2)/3)-D7</f>
-        <v>-20.363636363636374</v>
-      </c>
+        <f>(((A6^2)/3)+((B6^2)/4)+((C6^2)/4))-D7</f>
+        <v>24.219696969696884</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:13">
       <c r="C10" s="4" t="s">
@@ -713,7 +755,7 @@
       </c>
       <c r="D10" s="5">
         <f>D8-D9-E9</f>
-        <v>127.11363636363637</v>
+        <v>21.416666666666742</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
@@ -836,6 +878,113 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>31.4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>28.6</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <f>B19-B20</f>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="F20">
+        <v>4.8158000000000003</v>
+      </c>
+      <c r="G20">
+        <f>E20-F20</f>
+        <v>-2.0158000000000031</v>
+      </c>
+      <c r="H20">
+        <f>E20+F20</f>
+        <v>7.6157999999999975</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <f>B20-B21</f>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="F21">
+        <v>4.8158000000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G22" si="2">E21-F21</f>
+        <v>-0.21579999999999888</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H22" si="3">E21+F21</f>
+        <v>9.4158000000000008</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22">
+        <f>B19-B21</f>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="F22">
+        <v>4.8158000000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>2.5841999999999983</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>12.215799999999998</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OA4603/Exams/MazzaExam2.xlsx
+++ b/OA4603/Exams/MazzaExam2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23812"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19020" windowHeight="11895"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="19020" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -157,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +230,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -233,10 +238,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,16 +562,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -613,7 +618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4">
         <v>11</v>
       </c>
@@ -715,7 +720,7 @@
         <v>3.5833333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
@@ -758,7 +763,7 @@
         <v>21.416666666666742</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -863,7 +868,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="G16" s="2" t="s">
         <v>23</v>
       </c>
@@ -987,6 +992,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>